--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/30_Erzincan_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/30_Erzincan_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23129518-C341-4D6F-AFFC-03618AE5CFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D5E9420-4680-4841-A0BF-D5C50B2A925D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2F8987FD-97DD-4A1F-AE6D-814574F5D570}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{695019EF-9F6E-4A02-9CB5-34F491F762FD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{D3320A71-B519-4F12-8D30-9B10C23F1817}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{B3B3ED30-10FE-47DF-BCA8-340C09A72EB9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{5F6F6C7A-DFBA-443A-B0B2-93EF2A3C3D2C}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{066DE55F-EB1C-47A8-9039-0ED8392F416F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{52BEF16A-5C40-431B-905D-36137302EB69}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{53228E14-4997-4958-AF96-EE401385CC4C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9B22674B-2247-448B-96D8-920DB24A01B9}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{4D810D10-B77D-4C4D-83D9-30045C7F389D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE420FB-91C7-48C0-B63E-CF3D2DE71FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F2E0E-1F49-4FA0-AF58-3D5516E8B1CB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2427,18 +2427,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DF29C499-7A8B-4108-BCC4-E74BD00851B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EB381787-AD28-4D28-A075-D4FF78F6DD6B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E4F165C8-85AE-4886-9A23-33713E3E4099}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4F789AD6-5D4A-4E0A-904C-B20194F20F02}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C1A4E7FB-D68F-4F80-9317-212FAFAAD4B6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BBAFD19F-9F9F-4D46-9F6B-BFA5AEE690B2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B6F1592-7CD4-4FEC-9237-658DF6F3DC33}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AEB93C9F-02E9-4A2F-BB43-A8A95EF6FFCC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1B6F6CF0-928F-44A5-9EBB-09085E9356CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2076901B-BB58-47D2-9790-25756524BDEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EA24C04A-93DF-4028-B098-6533E6AE736A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{DB44C5D6-4BA3-4DF4-8983-CB2A869927BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{37353826-50E7-4242-8241-E8FF354C0BFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{654E732C-32D3-4462-B623-B63677294636}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D4458E33-1560-4542-994A-FD65E815D046}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{54351656-AE47-43A6-9E8E-46225D7B0484}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A4A554C1-B953-4628-9D7B-07D78B66341C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D5AE67A5-3833-43AE-B65D-4C04405E8270}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5808D92A-5694-432B-85F7-6031A03F2B09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2DAE46A7-E94F-4ABA-92DB-9AE8288FECAB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4C97292C-441F-4720-9813-E0B868AD96D1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{714E566C-EE6F-4592-A662-0EEE04A22919}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B02359D0-BE21-43F8-BFAB-CD5F25EB4F26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{026765B4-4B88-4567-A67F-21C7BAEB1599}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2451,7 +2451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81705B4-727F-4032-B7D8-8E5CEAE3A204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EEABBF3-AC0B-43EE-86E1-226A510CA2B3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3616,18 +3616,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DEE6E991-31C7-4750-B492-BAB3F4DC9820}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F1382D92-E81C-4760-A22C-0FC6033DFE6A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E0B94706-AB85-46DD-8AE6-2D065421C1A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38FF787E-9A98-4B6A-AAE3-ED4AFFA7F98E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{EFD3D36C-929E-4811-91B6-233CC3552001}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B7C49F26-EEB5-4384-9F21-F80EADBA8626}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7038BF71-3EA2-4720-AEEC-28A470FBC7E6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5EDA81B8-A150-439E-B7F6-EC9D1FC1ECA9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{692D571A-37FC-4B47-B885-42924427D706}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FDC822A6-9C58-4A18-8217-2B20D18D36DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3EDB9BED-EADD-4249-B701-5C694B18AFC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3AEF6903-C12C-436B-84D7-8B18623AE7B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0F43B14E-BA0A-47B1-9BDC-BE2EAB01196C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D6787E94-5C22-46BE-803F-1D951F19D670}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9B04837A-64AA-4EEE-8052-6529590F76EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{46942008-D3C3-4114-B29E-FBE867D8A7A3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5F137DB6-448D-48E2-B2FE-F6D481671FD4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{51BCAD58-3C9E-467C-87C4-579E7D8C06E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BDB7CD40-5880-4911-882C-E37CF50882AF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{683EEF48-B618-4D77-818B-E674E1540612}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C28F72A7-F9D4-42C1-8C2F-C3CD58DD2F5B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A53E4412-5D54-4377-BD20-C7EA5006007D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17B45288-A816-4CC5-A313-3718B0ABE9C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{39B54B6B-DE89-4282-B653-8E36F208EA9F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3640,7 +3640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5391B567-74B8-45C9-9329-C6F5F087B243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD41FC6-418C-42C6-BD66-9BE2C27A03E5}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4801,18 +4801,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{04DF67E7-C963-4F67-A614-42B790B1B1D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{280F5046-AD36-4003-A5F7-8FE170E7A984}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4670A4A2-6917-41A0-9C16-BD3EC3726104}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD646328-12CF-4ED0-97F2-4D1CEDE6F14A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7F463888-8812-4679-A547-E22DEA9B4585}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B151AC14-99C9-43FA-BAC5-897186BDEF7F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C9935DF4-D9C8-4776-BD92-260B5DC2B279}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{7AC1CFC1-C508-4009-9F78-A180E5B73AC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9CF5EC01-4A52-422B-9950-2AE3DF2C2333}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA32F8B3-F343-416E-B32E-607CF2FAF875}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E9517F33-E81F-474D-8BEE-F03F9E25C8F5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A36E9F68-7C99-4EB4-B3A5-395394AE9499}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BADEFF31-DF67-488E-B555-0D093EC4A4E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A7FE75B9-04ED-4D7C-8C1C-F66FE3AF3D6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{62D6E6BF-D6E2-4E9E-B4B1-97AE549C9AED}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6146BA4E-BAC1-427B-879C-0E87211D40EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7B1916EB-458D-4436-8C35-F4DAD148B04A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5B3580BE-F49E-4839-A258-F450022418F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2E66E07E-C5D7-4E5F-AA6B-A72566F73A72}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{40556E5A-74CB-442B-BD0B-2074F6C83C24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{2D80E35F-3AD9-4FCF-812C-9E86B174E8CF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{83B4AA04-1DF6-44FB-9559-B0336F8F0740}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8FA65D6-8768-43A2-A89A-B3D35155297B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C00EA892-8058-4A1D-95F2-4C647721094E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4825,7 +4825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC8C566-685B-4717-979C-6F2FC4AF0018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014B02F-84BF-4534-9164-A4892A9663B3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5974,18 +5974,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{235AC8CF-CE8D-43C9-81B6-571B747772AA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EE826A88-2EB5-4F23-8FC4-0E3D2396CC03}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{24DE70F7-F8D0-4739-B6B1-5CBA21F197B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE6EE533-A6D7-4126-8E32-2CEB35F6F6BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{27F63497-D6A7-4BC9-977E-0AEB6CD5DE75}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BE7791B0-7314-49F6-9BC6-2F3A502EB454}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F19FA6C8-6E61-4B24-9000-E4A5159FDCC3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9F0AA0F0-713A-41B6-A28A-41D43FBF0169}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{542B905D-B4D4-4FFF-B9FE-66E09013AC1F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7F9804B4-25AC-4500-9257-1ADE3BC5ED3E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{276B812C-EB41-4C01-9259-3056FE964A88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3CB371AD-A2DC-4CAA-A7C7-96D9CFDCB216}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA227C87-BFE2-4B52-B33F-B52A90AE65EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EE28AFA3-6894-4D1F-AD09-07078F35C6D9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{29E9B412-64B7-4BE6-B70A-1A67E547A0E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{699D3C56-585C-464A-9CF0-D5D27D3E2F51}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F84CB79F-46B4-4CC3-A68E-57D5231AB4A7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B35A693D-8800-43A1-89BB-321C26B3CB34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F38D563E-6632-4180-B41B-87F38C8DA8D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8D636073-961F-4C3B-B9CB-85BB3981DA24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{42EB6607-8899-4FCA-A996-AD07D3CA3AAD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2EA1324E-E488-4D9F-9BFF-14583EF368A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1A9ED3B3-0F50-44B9-8502-18975B1C8E58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CF9E6A8F-0357-4E32-BE6A-8DCBAADD1FF3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5998,7 +5998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A0A06-DC8D-4507-8084-95959E5CA085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122017A0-E852-4F67-B5E2-C17741648F55}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7191,18 +7191,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EDC82584-1EBA-4634-8F20-09740D9D7695}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{35F102BD-4805-4DB4-96E5-820686A15813}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C246D310-B37E-4DA8-8B57-B58FCD64CBBC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{861E0025-266D-42F3-BEDE-46380A06F26C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{284F096F-4F53-42AB-99C6-73E9785F55CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{19B29DEE-35FF-461E-86B9-8814A8B67BD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{20C3F840-BB66-4182-BA94-939ADD926099}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9E544A1B-5E6C-4104-8888-EAAC943512B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EFAF96F8-F5AA-456B-8626-18AA0C6DAC90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{07BEAFC3-EA65-46F3-8F39-C0F594BD990D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{48789D5D-70BB-45B2-BD08-93AFFD8EBF62}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E949E15C-0FA1-418B-8FD9-AF7F5CA9B74A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{9A11F59F-9232-4B8B-B767-7BDA8B97B1AF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{456515D2-A843-4E27-A95E-694ED3F3A234}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{86D4D4E8-FFAE-46DB-BC24-3026B8121994}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DCFB0D71-5FB1-45A9-8C0E-601204365BE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{54D93981-C8D2-4CF4-B949-849E1523EBF8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DBAC139C-5DBD-4BE8-8FA4-39C91EC7BA78}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{908E5CF1-178F-43F9-ABA8-D2FF39E7258B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2AF80967-CA60-48E8-A140-11E1A9BACE12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{39D31C69-0830-4D29-90BF-EC00BA69DD38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0ED1CFE9-FD46-4359-85C1-3012D621AC26}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A021468D-E772-4AE2-AE7D-CB3823230607}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB12C547-2F3F-4E64-9685-8312593B49FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7215,7 +7215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6700D922-6DDF-4C78-9F55-039440CD997B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218556F7-9F57-4CAA-B95D-0892DA301731}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8406,18 +8406,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4E177222-B4D8-4A1F-8D9F-9B170EB371AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{860857BE-A42C-4BF7-A4EA-9255CC4EF064}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EFF9722D-BD6B-4606-8D9A-1AFFE1696863}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{43AD5D0D-34CA-4102-AFBE-26C813B3BCA6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6687A4AD-0841-4DC9-9583-2A0F91E1DFD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{17AC99A5-F79E-4B48-A272-587FB02E4D2A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F69859F1-8245-4D2A-BF5D-86B78B2F47A4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{134DBDEB-F53B-45F8-B033-DEC0D4C216CF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D4706F59-E54C-40E5-85CA-36B8CF2F3DE4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{304CF5AA-5476-4C18-9DA1-178A5836408F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A8DE4EBC-0B1A-491B-A9B9-B23127CF6815}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F45ECE3B-55FF-49DA-88D4-62308D173D0F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2966902B-A41D-449C-86CC-59FE478EB5C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F7A3C6FD-2AD8-44A8-A057-C953BB961096}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{778010B8-06A2-401A-98F5-1E1504B55430}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{ABD4945E-3A57-4AE1-8B07-4C35C9E8892D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BA39769E-393E-4FDF-937C-6C57CA0CF09F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{04CF9BCE-DD50-4C42-BBE7-AF3DAB6266EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{04B1C323-DD6C-482C-98AD-126DA2217BAB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC7FEFA9-BCA4-4A71-BA8D-652484FB8D08}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4D7A410D-C19A-4E85-B05D-B66CE9D6ED7D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{87A5E32B-AAAE-4671-AF29-6B2238BFE1B6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DC35A6CC-A1B3-40AD-9981-446C6C2EB6C3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{90573D16-4624-4B1D-8070-061B19488B29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8430,7 +8430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F86AC0-5E64-4B61-88F6-A98B1812212F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED00B49F-B67C-4185-9A69-E51BF04FA390}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9615,18 +9615,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A29574F-6621-49ED-B9D1-B268B6274381}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{894EF8A3-A56F-4C44-A6CD-60110730EB2D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7D66C99A-2DE3-4CD1-9305-662F48CCD4CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{28A74B85-BFAE-4F55-B50E-CB0FB9264EDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3A4CAF79-72DC-4CFC-8D20-5FE3BC37980C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F4359426-2ACA-475E-A9E7-B40295063061}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2505BA60-9CA4-4F8E-95A4-678FCA2D70C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8E8E79FB-48FD-4169-86B9-E96C3D9722A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B44F5EF3-086F-4088-A0E5-7085F482C56E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AA9CA081-9C61-4229-8D2D-98551100B1AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D486CB3F-EBC6-4FEB-9580-C60EFEE772A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{B80312E9-3159-4D94-B585-6BA3D119744D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{95049821-90A5-4B0A-8B8C-1EB8C3B97A52}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E9B20ED7-5894-48F4-82E8-A24EFD103F87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20BC17EF-7995-446C-9EB4-21131CBAA8A9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DC16735E-A7B2-4FFB-8963-8EE1531A9BDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CBF1FF95-298D-4D3B-AE08-F9CD74821625}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{895A9CE4-C136-4D33-A84A-B05024D63188}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{929F3492-D058-471D-8121-FF661EF427CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CA5C8821-BC97-4673-B26E-5A844B9DE585}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{88E0168E-A383-4C99-A81B-828B73AE5B3B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{571C03AE-8BF2-4520-A9C7-E607226E4B0B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{61161B3B-F75A-494B-B33C-610DC289057D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E89C5A5E-8D02-454C-8629-C544EEE77046}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9639,7 +9639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{218EDBA1-98E6-4870-9AE1-47EFD10C0CA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C65135F-F0A3-4453-B20F-385189A9B9FE}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10820,18 +10820,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{4A64C5D2-6653-4B5C-A12F-D645496A0DF8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{81A53475-5826-4931-90A4-109B83C7ADB0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B5F60AD1-49F5-40A0-8E3D-8B64A1BBEF8F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BAAF27AA-6338-4039-97C0-3492C18A845F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0A60CF38-E051-4071-A7AE-D2B8CD4528EA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E52209FE-B01C-456F-A125-9D2BD7FD8294}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3EECC143-6372-481F-B04A-E980964E0F83}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{71F84496-C54D-4878-A9E5-81C9B62DEC91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{16E9B21D-599F-463B-8C20-2B806F7908A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF812EA1-238C-4F24-9D00-E1B433899C00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C4C1740D-0371-4552-8216-9770EBBB8B33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2E293B6F-B44B-43C4-A60E-745716982E02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{763B34FA-B838-48C7-A311-5AC2096618BF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{347164A0-CE4A-425E-9FCA-F48999B96D67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2E1180E4-0BDD-445D-8117-C6F914E7E74D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BFDBB504-C6F1-4F41-BFCF-565EECC99C92}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AB852B40-8D49-452B-9BAB-9C7B598BA606}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DF9CABC8-E436-47B5-938C-EBAF623B417F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6A529F90-44DE-420D-A768-E8CBCF60285B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{596B80B5-DEB5-4245-B747-B0561ECDD8B9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1726ECE0-A5CC-4A6A-893B-DD9D72B00046}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7DF836C0-BEBE-4A14-A3BD-E04129EE4DD4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D08683AA-6108-4E08-93A6-571D72B53EB9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9E942238-133A-4C19-A384-71F8F724870E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10844,7 +10844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B97272-E830-4539-BE6A-93A95CEB8959}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0766A8A-D940-4AE9-B2D2-60F5A37C168A}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12021,18 +12021,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{55E336DF-4941-4951-97A0-21E2E2A5305A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2439A958-3220-4C53-BCD7-0DB2C0A7DA7A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1FCFDA3B-4E3A-411E-A229-E7400AC3EFAB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B3CA6D3C-8338-4ECE-B8CF-728D746441AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{1109F85D-5152-4612-8D2B-E2CF95D606B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{D59F4182-8A43-4C3F-8176-7CBD7A5C7B4C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{48D5DCED-160E-461B-86EF-6A6AB7885CB9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F28989F9-1E4B-4C2E-9CF3-C8A4275514DE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{164538D5-6FE0-4974-A6B1-F7875D6DC0B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CF91BD79-DFE6-498F-AF2B-2E9CE9E1F86D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E8DFE11F-5936-41B6-A32B-586D81C19D1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2CAF6901-B8E3-423D-A9BE-D0D0630A17B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A96207FE-B92E-44ED-9B57-7D62A69F5487}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{885AD685-6836-4DB1-837B-817463067902}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{72B8862F-CCCA-4DE7-9B14-222AD7DBB0F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7F835DCF-4E13-45B8-B0FA-39FEE5F95B1A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3D6F6F27-DED7-44AF-AC00-4866557B4F91}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{00611D3D-63CE-46C9-95D7-A855E81D7366}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B249E538-957D-4BA2-ADF4-035A08B4A4D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BA6AE019-43F4-4B56-A65D-D842F30131B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A95F6611-7B87-43A3-8BC2-B94A85575E16}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{224ADE4F-206F-480E-8968-45159F3EC49F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EF150964-AB43-413F-8A2E-2B0A921DA294}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BFA1BA42-A743-4E13-AB6B-F91339040A7C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12045,7 +12045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC005E8-1710-4D10-8864-0DD89D2C774C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F897679-1CC0-411A-9381-DA01B27F3225}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13218,18 +13218,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EBEB4423-7B49-4710-B7BF-75473E5CA0A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1EED8E5E-C357-40A3-A120-C8455DCFD887}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B634373C-4046-4A6A-B2FA-514BF0C7FAA4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A903014A-4FB8-44A2-9E1C-B9C85A689F73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0EA33E63-7FC6-4E0E-A871-4591B8B0B39D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4310F3CB-7530-4A99-8F88-8DC3290A47AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{9C055B45-FCC2-492C-93D4-00BF4F2651D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{14C07A76-84EB-4805-BAA2-729541F7129C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3978CB2A-4C35-416E-8B71-4DCB352CBF05}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3DD0582D-6CF4-4404-A721-68C6CC2856F6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E79F25DE-DF0C-403B-9F09-BE750E65F927}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2C0D248A-6DEC-45E8-866B-C0017AA5F7F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{76314EC1-F61B-4BAE-B86E-4E1128E5F006}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A658E955-271B-4F10-85D5-5A9D75C1AAC0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4B1E570D-F4E3-4BB3-B2F0-BFA4A377E9AC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{643AA2E6-7B85-4FE8-9D17-144783325DB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E79AFD98-4EB2-4286-BBEA-D49ED1A55FD2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E9615FE5-38EB-45E5-B69D-A9E5437B3408}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BB868799-0626-41E3-AE2D-6B35836439DF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3EEEE79B-4F9A-4ED5-8654-99B0C71C975D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7406114B-AE14-47EA-B6B7-4AE714C13AA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{300FD78C-04CF-4E30-B50F-6581C44F9739}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D4E2FC79-D06B-4B27-91B8-6F400C087F45}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0C801ED2-0698-49DE-8B0B-8ED13E6AAA81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13242,7 +13242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F84EDA-84E1-47FB-9EE2-1B762205F0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1C2263-7A0F-4942-80DA-9293615F45EF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14411,18 +14411,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AAA43FEB-510F-4E6A-8392-611E5C4C8985}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{427B52F8-3AD3-47FF-BBF2-88FE35159AA5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E624AE49-2D1B-40F5-A40E-0E58AF62A50F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CACA5500-C25A-4423-A9C0-F61D1C6F3CA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5B1C13FD-8559-4D66-A01D-8EB67B2ADF8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0389863B-2AB9-4EB5-B350-CD4D6F8EFE2A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4DE83B44-7704-4232-82B9-8497D00BF6D7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{53B94451-91A2-4079-A38F-C8C3BFF1EE6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{903BC327-2AE1-44AB-B59D-20FB93B8833D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F6B3195D-748B-492D-AA85-1D8E7B1B187A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F6663118-02D1-4452-AB51-989DA5B15B5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03B0BC35-879D-4832-AC09-538B95EDEFF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B7DA2DD7-ABB9-4870-869A-699353EFAB6F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A43A8997-AF96-4F2E-9D19-B70791298010}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{7DC03D14-20CF-4B43-B4F3-E45656640771}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2B9B65EC-6CE1-4215-93D1-5F063BF77661}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3F89CDBD-9F74-4E43-BBF9-80327BC960E1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7B7772EC-FFA0-485A-B860-40D146865A56}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BE463082-0DD6-4401-8604-975279799CA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A44372B8-D429-47D0-8F07-E233DD65F960}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0F6B10F6-DE0A-4062-8C2B-D40BDA9DDA20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{96BADB5F-CA7B-4FBF-AB74-3B073C9DA0F4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{438740ED-0FC4-4EE6-AE14-D3D45463593F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{856C9B65-3196-4126-9FE8-0FFF0C994E62}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14435,7 +14435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608644D6-4D36-4797-AF16-2579ED9ECB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8F3BB2-65DB-49D0-9AFE-B44ABA9573CF}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15600,18 +15600,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{ED2761DE-16F6-4EB5-9AC1-41F44678A879}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{961040C1-9F78-41A0-A705-4CAF4F5A1536}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C9197805-6C6A-4C88-912E-2EB7CD0A27F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A372DD35-7D15-4FAF-A24D-CEE4666D6868}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9B18BD48-05E7-4D2A-93A8-3B70F8A1F383}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DF184A24-E6EC-4FF6-B81B-FFC915C8D4B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{89A4483E-2848-4A3F-9A2D-A265A1578F3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AAD55680-E3BA-486E-B494-195784BC631D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9624AB9C-442A-43BF-B290-15E3D323F666}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E25C62E4-D0EB-4189-941D-080277C1EF30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2DBD8DC-3F37-4081-ACF0-8496B56248B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BD0B1974-FDDC-4677-A7DE-75FA12E1D517}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{85B5F318-6A68-4150-89E7-F308751AE698}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EE97FE4C-B8F0-4AF6-820A-6E4569378E99}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C26D40EF-36AC-4A87-BE0B-6FDC22EF03C5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{58F0A463-72B5-44BC-B895-CE5C2ED7533F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B703D4B6-24AE-4BE9-89E8-0D91C48538B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F695D86A-27DD-4CA5-8945-6AE9960790A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C980263D-249D-4981-9876-22381DC34159}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5F494E0F-5077-4776-B1BA-8154D40E5C30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA5CC7D2-FCAA-455F-9511-9F17BFF50D43}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{39688462-6ACA-4A8D-B7D8-FBDEC3C33781}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{934C8818-7061-4A59-90FE-E2FE4C7039F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D6DBA1D-270A-4BAE-84B4-ED1082F0EAB9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
